--- a/public/reports/part-wise-report.xlsx
+++ b/public/reports/part-wise-report.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -394,29 +394,95 @@
         <v>Mode</v>
       </c>
       <c r="E1" t="str">
-        <v>Amount</v>
+        <v>Debit</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Credit</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Lalit Gases</v>
+        <v>NOBLE ALCHEM PRIVATE LIMITED</v>
       </c>
       <c r="B2" t="str">
-        <v>Received</v>
+        <v>Paid</v>
       </c>
       <c r="C2" t="str">
-        <v>2022-03-20</v>
+        <v>2022-03-19</v>
       </c>
       <c r="D2" t="str">
         <v>Cash</v>
       </c>
       <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>NOBLE ALCHEM PRIVATE LIMITED</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Paid</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2022-03-19</v>
+      </c>
+      <c r="D3" t="str">
+        <v>HDFC BANK</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v>8620</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Lalit Gases</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Received</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2022-03-20</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="E4" t="str">
         <v>586.75</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>MM Distributors</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Received</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2022-03-20</v>
+      </c>
+      <c r="D5" t="str">
+        <v>HDFC BANK</v>
+      </c>
+      <c r="E5" t="str">
+        <v>396.5</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>